--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>PHVS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,9 +705,12 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,9 +735,12 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>23900</v>
       </c>
       <c r="E12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,36 +899,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9400</v>
+        <v>30600</v>
       </c>
       <c r="E17" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,9 +970,12 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -954,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -996,8 +1029,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,9 +1044,12 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1023,8 +1059,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,47 +1074,53 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9400</v>
+        <v>-31900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,14 +1134,17 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1107,21 +1152,24 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9400</v>
+        <v>-31800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9400</v>
+        <v>-31800</v>
       </c>
       <c r="E27" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1320,8 +1389,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9400</v>
+        <v>-31800</v>
       </c>
       <c r="E33" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9400</v>
+        <v>-31800</v>
       </c>
       <c r="E35" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23900</v>
+        <v>120800</v>
       </c>
       <c r="E41" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>24900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24200</v>
+        <v>123800</v>
       </c>
       <c r="E46" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,9 +1887,12 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24200</v>
+        <v>123800</v>
       </c>
       <c r="E54" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,21 +2065,24 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,21 +2095,24 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,9 +2155,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,21 +2275,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-21300</v>
+        <v>-52000</v>
       </c>
       <c r="E72" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-22200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-12500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22000</v>
+        <v>117300</v>
       </c>
       <c r="E76" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>22900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9400</v>
+        <v>-31800</v>
       </c>
       <c r="E81" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2701,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2515,8 +2713,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7900</v>
+        <v>-26300</v>
       </c>
       <c r="E89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-4800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3176,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25400</v>
+        <v>124000</v>
       </c>
       <c r="E100" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,48 +3206,54 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17600</v>
+        <v>95900</v>
       </c>
       <c r="E102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="F12" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="E17" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F17" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F18" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-31900</v>
+        <v>-30400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F23" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F26" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F27" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F33" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F35" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120800</v>
+        <v>115100</v>
       </c>
       <c r="E41" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="F41" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1630,7 +1630,7 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123800</v>
+        <v>118000</v>
       </c>
       <c r="E46" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="F46" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>123800</v>
+        <v>118000</v>
       </c>
       <c r="E54" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="F54" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
@@ -2105,10 +2105,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E60" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -2285,10 +2285,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E66" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52000</v>
+        <v>-49600</v>
       </c>
       <c r="E72" s="3">
-        <v>-22200</v>
+        <v>-21100</v>
       </c>
       <c r="F72" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>117300</v>
+        <v>111800</v>
       </c>
       <c r="E76" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="F76" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31800</v>
+        <v>-30300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="F81" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-26300</v>
+        <v>-25100</v>
       </c>
       <c r="E89" s="3">
-        <v>-8200</v>
+        <v>-7800</v>
       </c>
       <c r="F89" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>124000</v>
+        <v>118100</v>
       </c>
       <c r="E100" s="3">
-        <v>26500</v>
+        <v>25300</v>
       </c>
       <c r="F100" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3246,10 +3246,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95900</v>
+        <v>91400</v>
       </c>
       <c r="E102" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="F102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22800</v>
+        <v>22000</v>
       </c>
       <c r="E12" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="F12" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="E17" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="F17" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="F18" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30400</v>
+        <v>-29400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E26" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F26" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F27" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F33" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F35" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115100</v>
+        <v>111400</v>
       </c>
       <c r="E41" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="F41" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="E46" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="F46" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>118000</v>
+        <v>114200</v>
       </c>
       <c r="E54" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="F54" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
@@ -2075,10 +2075,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="3">
         <v>2200</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E66" s="3">
         <v>2200</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-49600</v>
+        <v>-48000</v>
       </c>
       <c r="E72" s="3">
-        <v>-21100</v>
+        <v>-20400</v>
       </c>
       <c r="F72" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>111800</v>
+        <v>108200</v>
       </c>
       <c r="E76" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="F76" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="F81" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-25100</v>
+        <v>-24300</v>
       </c>
       <c r="E89" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="F89" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118100</v>
+        <v>114300</v>
       </c>
       <c r="E100" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="F100" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3246,10 +3246,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>91400</v>
+        <v>88400</v>
       </c>
       <c r="E102" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="F102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="E12" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="E17" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F17" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="F18" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29400</v>
+        <v>-28400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F23" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="E26" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F26" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111400</v>
+        <v>107600</v>
       </c>
       <c r="E41" s="3">
-        <v>23000</v>
+        <v>22200</v>
       </c>
       <c r="F41" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>114100</v>
+        <v>110200</v>
       </c>
       <c r="E46" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="F46" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114200</v>
+        <v>110300</v>
       </c>
       <c r="E54" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="F54" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2075,10 +2075,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2105,10 +2105,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -2285,10 +2285,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E66" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-48000</v>
+        <v>-46300</v>
       </c>
       <c r="E72" s="3">
-        <v>-20400</v>
+        <v>-19700</v>
       </c>
       <c r="F72" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>108200</v>
+        <v>104500</v>
       </c>
       <c r="E76" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="F76" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29300</v>
+        <v>-28300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="E89" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="F89" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3186,13 +3186,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>114300</v>
+        <v>110400</v>
       </c>
       <c r="E100" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="F100" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88400</v>
+        <v>85400</v>
       </c>
       <c r="E102" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="F102" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>PHVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,9 +708,12 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,9 +741,12 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21300</v>
+        <v>37100</v>
       </c>
       <c r="E12" s="3">
-        <v>6200</v>
+        <v>20200</v>
       </c>
       <c r="F12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,17 +921,20 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -929,12 +951,15 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27300</v>
+        <v>56200</v>
       </c>
       <c r="E17" s="3">
-        <v>8700</v>
+        <v>26000</v>
       </c>
       <c r="F17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,9 +999,12 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-8700</v>
+        <v>-26000</v>
       </c>
       <c r="F18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,14 +1080,17 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1062,8 +1098,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,18 +1113,21 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,26 +1143,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28400</v>
+        <v>-44300</v>
       </c>
       <c r="E23" s="3">
-        <v>-8800</v>
+        <v>-27100</v>
       </c>
       <c r="F23" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28300</v>
+        <v>-44400</v>
       </c>
       <c r="E26" s="3">
-        <v>-8800</v>
+        <v>-27000</v>
       </c>
       <c r="F26" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28300</v>
+        <v>-44400</v>
       </c>
       <c r="E27" s="3">
-        <v>-8800</v>
+        <v>-27000</v>
       </c>
       <c r="F27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-4500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,13 +1456,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28300</v>
+        <v>-44400</v>
       </c>
       <c r="E33" s="3">
-        <v>-8800</v>
+        <v>-27000</v>
       </c>
       <c r="F33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-4500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28300</v>
+        <v>-44400</v>
       </c>
       <c r="E35" s="3">
-        <v>-8800</v>
+        <v>-27000</v>
       </c>
       <c r="F35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-4500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107600</v>
+        <v>217300</v>
       </c>
       <c r="E41" s="3">
-        <v>22200</v>
+        <v>102400</v>
       </c>
       <c r="F41" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110200</v>
+        <v>219800</v>
       </c>
       <c r="E46" s="3">
-        <v>22500</v>
+        <v>104900</v>
       </c>
       <c r="F46" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>21400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110300</v>
+        <v>220100</v>
       </c>
       <c r="E54" s="3">
-        <v>22500</v>
+        <v>104900</v>
       </c>
       <c r="F54" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>21400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,53 +2168,59 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,24 +2234,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5800</v>
+        <v>7300</v>
       </c>
       <c r="E60" s="3">
-        <v>2100</v>
+        <v>5500</v>
       </c>
       <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,14 +2267,17 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2158,9 +2300,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2432,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="E66" s="3">
-        <v>2100</v>
+        <v>5500</v>
       </c>
       <c r="F66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-46300</v>
+        <v>-80700</v>
       </c>
       <c r="E72" s="3">
-        <v>-19700</v>
+        <v>-44100</v>
       </c>
       <c r="F72" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-18800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-10600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>104500</v>
+        <v>212700</v>
       </c>
       <c r="E76" s="3">
-        <v>20400</v>
+        <v>99400</v>
       </c>
       <c r="F76" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>19400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28300</v>
+        <v>-44400</v>
       </c>
       <c r="E81" s="3">
-        <v>-8800</v>
+        <v>-27000</v>
       </c>
       <c r="F81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-8300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-4500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,13 +2899,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2716,8 +2914,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23500</v>
+        <v>-46300</v>
       </c>
       <c r="E89" s="3">
-        <v>-7300</v>
+        <v>-22300</v>
       </c>
       <c r="F89" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-4100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,13 +3145,14 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2940,8 +3160,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,14 +3241,17 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3030,8 +3259,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>110400</v>
+        <v>149100</v>
       </c>
       <c r="E100" s="3">
-        <v>23600</v>
+        <v>105000</v>
       </c>
       <c r="F100" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>22500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,17 +3454,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1400</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3236,27 +3484,30 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>85400</v>
+        <v>114900</v>
       </c>
       <c r="E102" s="3">
-        <v>16300</v>
+        <v>81300</v>
       </c>
       <c r="F102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>37100</v>
+        <v>35700</v>
       </c>
       <c r="E12" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G12" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>56200</v>
+        <v>54000</v>
       </c>
       <c r="E17" s="3">
-        <v>26000</v>
+        <v>24900</v>
       </c>
       <c r="F17" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G17" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-26000</v>
+        <v>-24900</v>
       </c>
       <c r="F18" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-44300</v>
+        <v>-42500</v>
       </c>
       <c r="E23" s="3">
-        <v>-27100</v>
+        <v>-26000</v>
       </c>
       <c r="F23" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G23" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-44400</v>
+        <v>-42600</v>
       </c>
       <c r="E26" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="F26" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G26" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44400</v>
+        <v>-42600</v>
       </c>
       <c r="E27" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="F27" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G27" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-44400</v>
+        <v>-42600</v>
       </c>
       <c r="E33" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="F33" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G33" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-44400</v>
+        <v>-42600</v>
       </c>
       <c r="E35" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="F35" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G35" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>217300</v>
+        <v>208800</v>
       </c>
       <c r="E41" s="3">
-        <v>102400</v>
+        <v>98400</v>
       </c>
       <c r="F41" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="G41" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>219800</v>
+        <v>211200</v>
       </c>
       <c r="E46" s="3">
-        <v>104900</v>
+        <v>100800</v>
       </c>
       <c r="F46" s="3">
-        <v>21400</v>
+        <v>20500</v>
       </c>
       <c r="G46" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1887,7 +1887,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>220100</v>
+        <v>211500</v>
       </c>
       <c r="E54" s="3">
-        <v>104900</v>
+        <v>100800</v>
       </c>
       <c r="F54" s="3">
-        <v>21400</v>
+        <v>20500</v>
       </c>
       <c r="G54" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -2154,7 +2154,7 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E59" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F59" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2244,13 +2244,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E60" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F60" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="E66" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F66" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-80700</v>
+        <v>-77600</v>
       </c>
       <c r="E72" s="3">
-        <v>-44100</v>
+        <v>-42400</v>
       </c>
       <c r="F72" s="3">
-        <v>-18800</v>
+        <v>-18000</v>
       </c>
       <c r="G72" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>212700</v>
+        <v>204400</v>
       </c>
       <c r="E76" s="3">
-        <v>99400</v>
+        <v>95500</v>
       </c>
       <c r="F76" s="3">
-        <v>19400</v>
+        <v>18600</v>
       </c>
       <c r="G76" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-44400</v>
+        <v>-42600</v>
       </c>
       <c r="E81" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="F81" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="G81" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46300</v>
+        <v>-44500</v>
       </c>
       <c r="E89" s="3">
-        <v>-22300</v>
+        <v>-21400</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G89" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>149100</v>
+        <v>143300</v>
       </c>
       <c r="E100" s="3">
-        <v>105000</v>
+        <v>100900</v>
       </c>
       <c r="F100" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="G100" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>114900</v>
+        <v>110400</v>
       </c>
       <c r="E102" s="3">
-        <v>81300</v>
+        <v>78100</v>
       </c>
       <c r="F102" s="3">
-        <v>15500</v>
+        <v>14900</v>
       </c>
       <c r="G102" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>35700</v>
+        <v>36500</v>
       </c>
       <c r="E12" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="F12" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54000</v>
+        <v>55300</v>
       </c>
       <c r="E17" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="F17" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G17" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-24900</v>
+        <v>-25500</v>
       </c>
       <c r="F18" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G18" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-42500</v>
+        <v>-43500</v>
       </c>
       <c r="E23" s="3">
-        <v>-26000</v>
+        <v>-26600</v>
       </c>
       <c r="F23" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42600</v>
+        <v>-43600</v>
       </c>
       <c r="E26" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="F26" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42600</v>
+        <v>-43600</v>
       </c>
       <c r="E27" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="F27" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42600</v>
+        <v>-43600</v>
       </c>
       <c r="E33" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="F33" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G33" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42600</v>
+        <v>-43600</v>
       </c>
       <c r="E35" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="F35" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G35" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>208800</v>
+        <v>213700</v>
       </c>
       <c r="E41" s="3">
-        <v>98400</v>
+        <v>100700</v>
       </c>
       <c r="F41" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="G41" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1788,7 +1788,7 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211200</v>
+        <v>216100</v>
       </c>
       <c r="E46" s="3">
-        <v>100800</v>
+        <v>103200</v>
       </c>
       <c r="F46" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="G46" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>211500</v>
+        <v>216500</v>
       </c>
       <c r="E54" s="3">
-        <v>100800</v>
+        <v>103200</v>
       </c>
       <c r="F54" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="G54" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -2154,7 +2154,7 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2211,10 +2211,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E59" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F59" s="3">
         <v>1400</v>
@@ -2244,13 +2244,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E60" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="E66" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-77600</v>
+        <v>-79400</v>
       </c>
       <c r="E72" s="3">
-        <v>-42400</v>
+        <v>-43400</v>
       </c>
       <c r="F72" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="G72" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>204400</v>
+        <v>209200</v>
       </c>
       <c r="E76" s="3">
-        <v>95500</v>
+        <v>97800</v>
       </c>
       <c r="F76" s="3">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="G76" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42600</v>
+        <v>-43600</v>
       </c>
       <c r="E81" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="F81" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G81" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-44500</v>
+        <v>-45500</v>
       </c>
       <c r="E89" s="3">
-        <v>-21400</v>
+        <v>-21900</v>
       </c>
       <c r="F89" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G89" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>143300</v>
+        <v>146700</v>
       </c>
       <c r="E100" s="3">
-        <v>100900</v>
+        <v>103300</v>
       </c>
       <c r="F100" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="G100" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>110400</v>
+        <v>113000</v>
       </c>
       <c r="E102" s="3">
-        <v>78100</v>
+        <v>79900</v>
       </c>
       <c r="F102" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="G102" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="E12" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="F12" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55300</v>
+        <v>57300</v>
       </c>
       <c r="E17" s="3">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="F17" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="G17" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-25500</v>
+        <v>-26500</v>
       </c>
       <c r="F18" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G18" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-43500</v>
+        <v>-45100</v>
       </c>
       <c r="E23" s="3">
-        <v>-26600</v>
+        <v>-27600</v>
       </c>
       <c r="F23" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E26" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F26" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E27" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F27" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E33" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F33" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E35" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F35" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>213700</v>
+        <v>221500</v>
       </c>
       <c r="E41" s="3">
-        <v>100700</v>
+        <v>104300</v>
       </c>
       <c r="F41" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="G41" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>216100</v>
+        <v>224000</v>
       </c>
       <c r="E46" s="3">
-        <v>103200</v>
+        <v>106900</v>
       </c>
       <c r="F46" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="G46" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1887,7 +1887,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216500</v>
+        <v>224400</v>
       </c>
       <c r="E54" s="3">
-        <v>103200</v>
+        <v>107000</v>
       </c>
       <c r="F54" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="G54" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2211,13 +2211,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
-        <v>4800</v>
-      </c>
       <c r="F59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -2244,10 +2244,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E60" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
@@ -2442,10 +2442,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="E66" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F66" s="3">
         <v>2000</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79400</v>
+        <v>-82300</v>
       </c>
       <c r="E72" s="3">
-        <v>-43400</v>
+        <v>-44900</v>
       </c>
       <c r="F72" s="3">
-        <v>-18500</v>
+        <v>-19100</v>
       </c>
       <c r="G72" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209200</v>
+        <v>216800</v>
       </c>
       <c r="E76" s="3">
-        <v>97800</v>
+        <v>101300</v>
       </c>
       <c r="F76" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="G76" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="E81" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F81" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-45500</v>
+        <v>-47200</v>
       </c>
       <c r="E89" s="3">
-        <v>-21900</v>
+        <v>-22700</v>
       </c>
       <c r="F89" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="G89" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>146700</v>
+        <v>152000</v>
       </c>
       <c r="E100" s="3">
-        <v>103300</v>
+        <v>107100</v>
       </c>
       <c r="F100" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="G100" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="E101" s="3">
         <v>-1400</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>113000</v>
+        <v>117100</v>
       </c>
       <c r="E102" s="3">
-        <v>79900</v>
+        <v>82800</v>
       </c>
       <c r="F102" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="G102" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>PHVS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,9 +711,12 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,9 +747,12 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,26 +838,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>37900</v>
+        <v>61800</v>
       </c>
       <c r="E12" s="3">
-        <v>20600</v>
+        <v>38500</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="G12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,20 +943,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -954,12 +976,15 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,26 +995,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57300</v>
+        <v>93400</v>
       </c>
       <c r="E17" s="3">
-        <v>26500</v>
+        <v>58300</v>
       </c>
       <c r="F17" s="3">
-        <v>8500</v>
+        <v>26900</v>
       </c>
       <c r="G17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,9 +1028,12 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,17 +1041,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-26500</v>
+        <v>-58300</v>
       </c>
       <c r="F18" s="3">
-        <v>-8500</v>
+        <v>-26900</v>
       </c>
       <c r="G18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,16 +1093,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,21 +1152,24 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,30 +1185,33 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-45100</v>
+        <v>-81500</v>
       </c>
       <c r="E23" s="3">
-        <v>-27600</v>
+        <v>-45900</v>
       </c>
       <c r="F23" s="3">
-        <v>-8500</v>
+        <v>-28100</v>
       </c>
       <c r="G23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1212,12 +1257,15 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,27 +1296,30 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-45200</v>
+        <v>-82200</v>
       </c>
       <c r="E26" s="3">
-        <v>-27500</v>
+        <v>-46000</v>
       </c>
       <c r="F26" s="3">
-        <v>-8500</v>
+        <v>-28000</v>
       </c>
       <c r="G26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45200</v>
+        <v>-82200</v>
       </c>
       <c r="E27" s="3">
-        <v>-27500</v>
+        <v>-46000</v>
       </c>
       <c r="F27" s="3">
-        <v>-8500</v>
+        <v>-28000</v>
       </c>
       <c r="G27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,16 +1525,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,27 +1548,30 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-45200</v>
+        <v>-82200</v>
       </c>
       <c r="E33" s="3">
-        <v>-27500</v>
+        <v>-46000</v>
       </c>
       <c r="F33" s="3">
-        <v>-8500</v>
+        <v>-28000</v>
       </c>
       <c r="G33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,27 +1620,30 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-45200</v>
+        <v>-82200</v>
       </c>
       <c r="E35" s="3">
-        <v>-27500</v>
+        <v>-46000</v>
       </c>
       <c r="F35" s="3">
-        <v>-8500</v>
+        <v>-28000</v>
       </c>
       <c r="G35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>221500</v>
+        <v>174300</v>
       </c>
       <c r="E41" s="3">
-        <v>104300</v>
+        <v>225500</v>
       </c>
       <c r="F41" s="3">
-        <v>21500</v>
+        <v>106200</v>
       </c>
       <c r="G41" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>224000</v>
+        <v>180000</v>
       </c>
       <c r="E46" s="3">
-        <v>106900</v>
+        <v>228000</v>
       </c>
       <c r="F46" s="3">
-        <v>21800</v>
+        <v>108800</v>
       </c>
       <c r="G46" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,17 +2125,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2036,15 +2155,18 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>224400</v>
+        <v>180600</v>
       </c>
       <c r="E54" s="3">
-        <v>107000</v>
+        <v>228400</v>
       </c>
       <c r="F54" s="3">
-        <v>21800</v>
+        <v>108900</v>
       </c>
       <c r="G54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,18 +2301,21 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,32 +2331,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="E59" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,27 +2373,30 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7400</v>
+        <v>19600</v>
       </c>
       <c r="E60" s="3">
-        <v>5600</v>
+        <v>7500</v>
       </c>
       <c r="F60" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="G60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,18 +2409,21 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,27 +2589,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7600</v>
+        <v>19900</v>
       </c>
       <c r="E66" s="3">
-        <v>5600</v>
+        <v>7700</v>
       </c>
       <c r="F66" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="G66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-82300</v>
+        <v>-155100</v>
       </c>
       <c r="E72" s="3">
-        <v>-44900</v>
+        <v>-83800</v>
       </c>
       <c r="F72" s="3">
-        <v>-19100</v>
+        <v>-45700</v>
       </c>
       <c r="G72" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-19500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-11000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>216800</v>
+        <v>160700</v>
       </c>
       <c r="E76" s="3">
-        <v>101300</v>
+        <v>220700</v>
       </c>
       <c r="F76" s="3">
-        <v>19800</v>
+        <v>103200</v>
       </c>
       <c r="G76" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>20100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,27 +3042,30 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-45200</v>
+        <v>-82200</v>
       </c>
       <c r="E81" s="3">
-        <v>-27500</v>
+        <v>-46000</v>
       </c>
       <c r="F81" s="3">
-        <v>-8500</v>
+        <v>-28000</v>
       </c>
       <c r="G81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-47200</v>
+        <v>-72300</v>
       </c>
       <c r="E89" s="3">
-        <v>-22700</v>
+        <v>-48000</v>
       </c>
       <c r="F89" s="3">
-        <v>-7100</v>
+        <v>-23200</v>
       </c>
       <c r="G89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-7200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-4200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3155,7 +3375,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3163,8 +3383,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,9 +3470,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3254,7 +3483,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3262,8 +3491,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>152000</v>
+        <v>9300</v>
       </c>
       <c r="E100" s="3">
-        <v>107100</v>
+        <v>154700</v>
       </c>
       <c r="F100" s="3">
-        <v>22900</v>
+        <v>109000</v>
       </c>
       <c r="G100" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>23300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>4900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,20 +3702,23 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3487,30 +3735,33 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117100</v>
+        <v>-51200</v>
       </c>
       <c r="E102" s="3">
-        <v>82800</v>
+        <v>119200</v>
       </c>
       <c r="F102" s="3">
-        <v>15800</v>
+        <v>84300</v>
       </c>
       <c r="G102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>61800</v>
+        <v>62200</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>38800</v>
       </c>
       <c r="F12" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="G12" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H12" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93400</v>
+        <v>94000</v>
       </c>
       <c r="E17" s="3">
-        <v>58300</v>
+        <v>58700</v>
       </c>
       <c r="F17" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="G17" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="H17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1041,16 +1041,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-58300</v>
+        <v>-58700</v>
       </c>
       <c r="F18" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="G18" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H18" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1093,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81500</v>
+        <v>-82000</v>
       </c>
       <c r="E23" s="3">
-        <v>-45900</v>
+        <v>-46200</v>
       </c>
       <c r="F23" s="3">
-        <v>-28100</v>
+        <v>-28300</v>
       </c>
       <c r="G23" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H23" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="E26" s="3">
-        <v>-46000</v>
+        <v>-46300</v>
       </c>
       <c r="F26" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G26" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H26" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="E27" s="3">
-        <v>-46000</v>
+        <v>-46300</v>
       </c>
       <c r="F27" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G27" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H27" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1525,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="F32" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="E33" s="3">
-        <v>-46000</v>
+        <v>-46300</v>
       </c>
       <c r="F33" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G33" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H33" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="E35" s="3">
-        <v>-46000</v>
+        <v>-46300</v>
       </c>
       <c r="F35" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G35" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H35" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>174300</v>
+        <v>175400</v>
       </c>
       <c r="E41" s="3">
-        <v>225500</v>
+        <v>227000</v>
       </c>
       <c r="F41" s="3">
-        <v>106200</v>
+        <v>106900</v>
       </c>
       <c r="G41" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="H41" s="3">
         <v>5800</v>
@@ -1919,16 +1919,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>180000</v>
+        <v>181200</v>
       </c>
       <c r="E46" s="3">
-        <v>228000</v>
+        <v>229500</v>
       </c>
       <c r="F46" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="G46" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="H46" s="3">
         <v>5900</v>
@@ -2207,16 +2207,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>180600</v>
+        <v>181800</v>
       </c>
       <c r="E54" s="3">
-        <v>228400</v>
+        <v>229900</v>
       </c>
       <c r="F54" s="3">
-        <v>108900</v>
+        <v>109600</v>
       </c>
       <c r="G54" s="3">
-        <v>22200</v>
+        <v>22300</v>
       </c>
       <c r="H54" s="3">
         <v>5900</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
@@ -2284,7 +2284,7 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2347,10 +2347,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E59" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F59" s="3">
         <v>5000</v>
@@ -2383,13 +2383,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="E60" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F60" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G60" s="3">
         <v>2100</v>
@@ -2599,13 +2599,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E66" s="3">
         <v>7700</v>
       </c>
       <c r="F66" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G66" s="3">
         <v>2100</v>
@@ -2795,16 +2795,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-155100</v>
+        <v>-156100</v>
       </c>
       <c r="E72" s="3">
-        <v>-83800</v>
+        <v>-84300</v>
       </c>
       <c r="F72" s="3">
-        <v>-45700</v>
+        <v>-46100</v>
       </c>
       <c r="G72" s="3">
-        <v>-19500</v>
+        <v>-19600</v>
       </c>
       <c r="H72" s="3">
         <v>-11000</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>160700</v>
+        <v>161800</v>
       </c>
       <c r="E76" s="3">
-        <v>220700</v>
+        <v>222200</v>
       </c>
       <c r="F76" s="3">
-        <v>103200</v>
+        <v>103800</v>
       </c>
       <c r="G76" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="H76" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="E81" s="3">
-        <v>-46000</v>
+        <v>-46300</v>
       </c>
       <c r="F81" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="G81" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H81" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3320,13 +3320,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72300</v>
+        <v>-72800</v>
       </c>
       <c r="E89" s="3">
-        <v>-48000</v>
+        <v>-48400</v>
       </c>
       <c r="F89" s="3">
-        <v>-23200</v>
+        <v>-23300</v>
       </c>
       <c r="G89" s="3">
         <v>-7200</v>
@@ -3676,16 +3676,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E100" s="3">
-        <v>154700</v>
+        <v>155800</v>
       </c>
       <c r="F100" s="3">
-        <v>109000</v>
+        <v>109700</v>
       </c>
       <c r="G100" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="H100" s="3">
         <v>4900</v>
@@ -3712,10 +3712,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="E101" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="F101" s="3">
         <v>-1500</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-51200</v>
+        <v>-51500</v>
       </c>
       <c r="E102" s="3">
-        <v>119200</v>
+        <v>120000</v>
       </c>
       <c r="F102" s="3">
-        <v>84300</v>
+        <v>84900</v>
       </c>
       <c r="G102" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="H102" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHVS_YR_FIN.xlsx
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E12" s="3">
         <v>38800</v>
       </c>
       <c r="F12" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="G12" s="3">
         <v>6200</v>
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94000</v>
+        <v>94100</v>
       </c>
       <c r="E17" s="3">
         <v>58700</v>
@@ -1198,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-82000</v>
+        <v>-82100</v>
       </c>
       <c r="E23" s="3">
-        <v>-46200</v>
+        <v>-46300</v>
       </c>
       <c r="F23" s="3">
         <v>-28300</v>
@@ -1309,7 +1309,7 @@
         <v>-82800</v>
       </c>
       <c r="E26" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="F26" s="3">
         <v>-28200</v>
@@ -1345,7 +1345,7 @@
         <v>-82800</v>
       </c>
       <c r="E27" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="F27" s="3">
         <v>-28200</v>
@@ -1561,7 +1561,7 @@
         <v>-82800</v>
       </c>
       <c r="E33" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="F33" s="3">
         <v>-28200</v>
@@ -1633,7 +1633,7 @@
         <v>-82800</v>
       </c>
       <c r="E35" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="F35" s="3">
         <v>-28200</v>
@@ -1739,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175400</v>
+        <v>175600</v>
       </c>
       <c r="E41" s="3">
-        <v>227000</v>
+        <v>227100</v>
       </c>
       <c r="F41" s="3">
-        <v>106900</v>
+        <v>107000</v>
       </c>
       <c r="G41" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H41" s="3">
         <v>5800</v>
@@ -1919,13 +1919,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>181200</v>
+        <v>181300</v>
       </c>
       <c r="E46" s="3">
-        <v>229500</v>
+        <v>229700</v>
       </c>
       <c r="F46" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="G46" s="3">
         <v>22300</v>
@@ -2207,13 +2207,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>181800</v>
+        <v>182000</v>
       </c>
       <c r="E54" s="3">
-        <v>229900</v>
+        <v>230100</v>
       </c>
       <c r="F54" s="3">
-        <v>109600</v>
+        <v>109700</v>
       </c>
       <c r="G54" s="3">
         <v>22300</v>
@@ -2353,7 +2353,7 @@
         <v>5200</v>
       </c>
       <c r="F59" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-156100</v>
+        <v>-156300</v>
       </c>
       <c r="E72" s="3">
-        <v>-84300</v>
+        <v>-84400</v>
       </c>
       <c r="F72" s="3">
         <v>-46100</v>
@@ -2939,16 +2939,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>161800</v>
+        <v>161900</v>
       </c>
       <c r="E76" s="3">
-        <v>222200</v>
+        <v>222400</v>
       </c>
       <c r="F76" s="3">
-        <v>103800</v>
+        <v>103900</v>
       </c>
       <c r="G76" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="H76" s="3">
         <v>5400</v>
@@ -3055,7 +3055,7 @@
         <v>-82800</v>
       </c>
       <c r="E81" s="3">
-        <v>-46300</v>
+        <v>-46400</v>
       </c>
       <c r="F81" s="3">
         <v>-28200</v>
@@ -3320,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72800</v>
+        <v>-72900</v>
       </c>
       <c r="E89" s="3">
         <v>-48400</v>
@@ -3332,7 +3332,7 @@
         <v>-7200</v>
       </c>
       <c r="H89" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3679,10 +3679,10 @@
         <v>9400</v>
       </c>
       <c r="E100" s="3">
-        <v>155800</v>
+        <v>155900</v>
       </c>
       <c r="F100" s="3">
-        <v>109700</v>
+        <v>109800</v>
       </c>
       <c r="G100" s="3">
         <v>23500</v>
@@ -3748,13 +3748,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-51500</v>
+        <v>-51600</v>
       </c>
       <c r="E102" s="3">
-        <v>120000</v>
+        <v>120100</v>
       </c>
       <c r="F102" s="3">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="G102" s="3">
         <v>16200</v>
